--- a/data/trans_orig/P14C18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{225D5CAB-7906-409E-8588-9ABDE4EBCE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{088BE44A-0E05-4A61-8505-EF1C96BC3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF07AABA-0671-43B2-98E9-061EF026CBF3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B952B27-46FD-47C5-9CDE-AF0230163E81}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -113,10 +113,10 @@
     <t>46,45%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
   </si>
   <si>
     <t>46,61%</t>
@@ -131,10 +131,10 @@
     <t>41,13%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
   </si>
   <si>
     <t>14,06%</t>
@@ -146,7 +146,7 @@
     <t>12,41%</t>
   </si>
   <si>
-    <t>55,32%</t>
+    <t>52,66%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -155,19 +155,19 @@
     <t>77,74%</t>
   </si>
   <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -179,73 +179,73 @@
     <t>71,37%</t>
   </si>
   <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>66,32%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>51,66%</t>
+    <t>50,98%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>47,5%</t>
+    <t>40,78%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>30,67%</t>
+    <t>30,38%</t>
   </si>
   <si>
     <t>9,61%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -254,55 +254,55 @@
     <t>69,68%</t>
   </si>
   <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -311,13 +311,13 @@
     <t>4,32%</t>
   </si>
   <si>
-    <t>13,7%</t>
+    <t>13,95%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>10,38%</t>
+    <t>10,52%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -326,133 +326,133 @@
     <t>86,47%</t>
   </si>
   <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>16,13%</t>
+    <t>14,57%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>4,39%</t>
@@ -461,25 +461,25 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>12,21%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -894,7 +894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D0661C-4367-4FD0-933C-36DC52D2E19D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3B3ADD-5C32-4FE6-AA77-C234ACADF9FC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C18-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C18-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{088BE44A-0E05-4A61-8505-EF1C96BC3A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{004F085B-BEB6-4ACE-BF4B-461058E8DCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B952B27-46FD-47C5-9CDE-AF0230163E81}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BE81810E-0019-411A-9536-20C51371CB96}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
-  <si>
-    <t>Población según el tiempo de diagnóstico del mala circulación en 2015 (Tasa respuesta: 4,45%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="147">
+  <si>
+    <t>Población según el tiempo de diagnóstico del mala circulación en 2016 (Tasa respuesta: 4,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -104,49 +104,49 @@
     <t>39,33%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>46,45%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>46,61%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>58,77%</t>
+    <t>58,43%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>52,66%</t>
+    <t>54,77%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -155,19 +155,19 @@
     <t>77,74%</t>
   </si>
   <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>22,26%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -179,64 +179,64 @@
     <t>71,37%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>63,72%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>66,32%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>19,04%</t>
   </si>
   <si>
-    <t>50,98%</t>
+    <t>53,15%</t>
   </si>
   <si>
     <t>26,66%</t>
   </si>
   <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>24,07%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>40,78%</t>
+    <t>40,91%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>30,38%</t>
+    <t>29,86%</t>
   </si>
   <si>
     <t>9,61%</t>
@@ -245,7 +245,7 @@
     <t>3,03%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>24,71%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -254,55 +254,55 @@
     <t>69,68%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>30,32%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -311,13 +311,13 @@
     <t>4,32%</t>
   </si>
   <si>
-    <t>13,95%</t>
+    <t>14,76%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>10,52%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -326,160 +326,154 @@
     <t>86,47%</t>
   </si>
   <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>82,57%</t>
   </si>
   <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>14,57%</t>
+    <t>15,39%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -894,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3B3ADD-5C32-4FE6-AA77-C234ACADF9FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A15661A-F257-408B-B31A-C6360EAB5898}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>22060</v>
+        <v>22061</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>52</v>
@@ -1749,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>67</v>
@@ -1800,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>33263</v>
+        <v>33264</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -2304,13 +2298,13 @@
         <v>35556</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -2319,13 +2313,13 @@
         <v>46467</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2334,13 @@
         <v>3429</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -2355,13 +2349,13 @@
         <v>16815</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -2370,13 +2364,13 @@
         <v>20243</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2432,7 +2426,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
